--- a/docs/Input Signal Map.xlsx
+++ b/docs/Input Signal Map.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\dev\independent\project-joseph\source\docs\"/>
@@ -1690,9 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -7419,12 +7420,14 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8691,6 +8694,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10190,6 +10194,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
